--- a/01.店舗実績集約/output/consolidated_sales.xlsx
+++ b/01.店舗実績集約/output/consolidated_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -49,7 +49,13 @@
     <t>A00001</t>
   </si>
   <si>
-    <t>銀座店</t>
+    <t>A00002</t>
+  </si>
+  <si>
+    <t>恵比寿店</t>
+  </si>
+  <si>
+    <t>新宿店</t>
   </si>
   <si>
     <t>企画1</t>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>10000000</v>
@@ -520,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>500000</v>
@@ -543,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>10000000</v>
@@ -552,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>1000000</v>
@@ -575,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10000000</v>
@@ -584,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>1000000</v>
@@ -607,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>10000000</v>
@@ -616,13 +622,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>1000000</v>
@@ -639,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>10000000</v>
@@ -648,13 +654,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1000000</v>
@@ -671,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>10000000</v>
@@ -680,13 +686,13 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>500000</v>
@@ -703,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -712,13 +718,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1000000</v>
@@ -735,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>10000000</v>
@@ -744,13 +750,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1000000</v>
@@ -767,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>10000000</v>
@@ -776,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>1000000</v>
@@ -799,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10000000</v>
@@ -808,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2000000</v>
@@ -823,6 +829,326 @@
         <v>45977</v>
       </c>
       <c r="J11" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>20000000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>20000000</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>2000000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20000000</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>500000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>20000000</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>20000000</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>1500000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J16" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>20000000</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>4000000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>20000000</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>3000000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>20000000</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>45977</v>
+      </c>
+      <c r="J19" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>20000000</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>4000000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>20000000</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>2000000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>45977</v>
+      </c>
+      <c r="J21" s="2">
         <v>45991</v>
       </c>
     </row>
